--- a/Image Understanding with Tensorflow on GCP/Model Parameters.xlsx
+++ b/Image Understanding with Tensorflow on GCP/Model Parameters.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine Learning Engineer\Image Understanding with Tensorflow on GCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine_Learning_Engineer\Image Understanding with Tensorflow on GCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84234DDD-54D3-4B6B-AF3B-85C908031113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D11601-A083-442D-BA0B-8D9A8DAEB7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF76C739-A20B-425D-B741-B76947016002}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -397,7 +405,7 @@
   <dimension ref="A2:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,16 +604,16 @@
         <v>500</v>
       </c>
       <c r="AG8" s="1">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AI8">
         <v>1</v>
       </c>
       <c r="AJ8">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AL8" s="1">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AM8" s="1">
         <v>10</v>
@@ -628,15 +636,15 @@
       </c>
       <c r="AF9">
         <f>AF8*AG8+AG8</f>
-        <v>150300</v>
+        <v>25050</v>
       </c>
       <c r="AL9">
         <f>AL8*AM8+AM8</f>
-        <v>3010</v>
+        <v>510</v>
       </c>
       <c r="AQ9">
         <f>SUM(A9:AL9)</f>
-        <v>153610</v>
+        <v>25860</v>
       </c>
     </row>
   </sheetData>
